--- a/data/case1/13/Qlm1_1.xlsx
+++ b/data/case1/13/Qlm1_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.052661307035378968</v>
+        <v>-0.10186050314992201</v>
       </c>
       <c r="B1" s="0">
-        <v>0.052162509344526597</v>
+        <v>0.10148551492289215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.059359704654019296</v>
+        <v>-0.097263121967801958</v>
       </c>
       <c r="B2" s="0">
-        <v>0.058099861817376031</v>
+        <v>0.096091266472027037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.061981151170853011</v>
+        <v>-0.084305329479155589</v>
       </c>
       <c r="B3" s="0">
-        <v>0.061702619346345244</v>
+        <v>0.083650809438131191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.053702619415949115</v>
+        <v>-0.075650809520102058</v>
       </c>
       <c r="B4" s="0">
-        <v>0.053464116186830779</v>
+        <v>0.075048888631053856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.050464116218993382</v>
+        <v>-0.072048888673979405</v>
       </c>
       <c r="B5" s="0">
-        <v>0.049673456574140573</v>
+        <v>0.069983712328208547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.023912827891185984</v>
+        <v>-0.047788852946618832</v>
       </c>
       <c r="B6" s="0">
-        <v>0.023590689801245901</v>
+        <v>0.047287844453077099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01359068989281953</v>
+        <v>-0.037287844568059558</v>
       </c>
       <c r="B7" s="0">
-        <v>0.013521483104042442</v>
+        <v>0.037167741639799079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.003521483196453179</v>
+        <v>-0.027167741758999941</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0034200659782728238</v>
+        <v>0.026959076313417096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0014200660064296322</v>
+        <v>-0.024959076368368471</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0013442469568092363</v>
+        <v>0.024789447525946251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.00065575301610287795</v>
+        <v>-0.022789447585308764</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.00065862430547625195</v>
+        <v>0.02277902878281246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0036586242705567429</v>
+        <v>-0.01977902885092675</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0036645027683785969</v>
+        <v>0.019762107197453638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0071645027298590236</v>
+        <v>-0.016262107270899051</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0072079340756747712</v>
+        <v>0.016140795324850021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017169432256135764</v>
+        <v>-0.01264079540241525</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081485840491517</v>
+        <v>0.012591062130393738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090814859122527736</v>
+        <v>-0.0045910622478819718</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090529460521775462</v>
+        <v>0.0045804320731637205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080529460687372989</v>
+        <v>-0.0035804321307288944</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080345390092340097</v>
+        <v>0.0035759251074676257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060345390341751681</v>
+        <v>-0.0015759251740496971</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060033277592017598</v>
+        <v>0.0015723710311283945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003327784524835</v>
+        <v>0.00042762890197511894</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999586273205</v>
+        <v>-0.00042755312226283593</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.013197195261497541</v>
+        <v>0.0017776069921282556</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.013346129996282485</v>
+        <v>-0.0018366360039436813</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091423819421632</v>
+        <v>0.0058366359684201008</v>
       </c>
       <c r="B19" s="0">
-        <v>0.01201635807443413</v>
+        <v>-0.0062749514541242668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080163581088079638</v>
+        <v>-0.008016192978759662</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056454442303249</v>
+        <v>0.0080056320397634551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056454789842988</v>
+        <v>-0.0040056320750041507</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999649529272</v>
+        <v>0.0039999999645052853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045714699312616958</v>
+        <v>-0.0077859370358392965</v>
       </c>
       <c r="B22" s="0">
-        <v>0.04550081395641925</v>
+        <v>0.0077740795051379763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500814002562002</v>
+        <v>-0.0027740795572199772</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099300905835911</v>
+        <v>0.0027629557440054242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099301074997022</v>
+        <v>-0.020097533318510052</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999828400838</v>
+        <v>0.019999999815699887</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.02376062871174689</v>
+        <v>-0.020194859426117873</v>
       </c>
       <c r="B25" s="0">
-        <v>0.023753806674076117</v>
+        <v>0.02013686024895911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.021253806707179024</v>
+        <v>-0.017636860298328116</v>
       </c>
       <c r="B26" s="0">
-        <v>0.021246365774013398</v>
+        <v>0.017564844536636315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.018746365807702059</v>
+        <v>-0.019975782354835214</v>
       </c>
       <c r="B27" s="0">
-        <v>0.018707551999319616</v>
+        <v>0.019562814866925571</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.016707552031430595</v>
+        <v>-0.01756281491642131</v>
       </c>
       <c r="B28" s="0">
-        <v>0.016689656664861552</v>
+        <v>0.017300083720507509</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.08134633131410407</v>
+        <v>-0.010300083815547367</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081165746760586188</v>
+        <v>0.01023569012672354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021165747259712653</v>
+        <v>-0.021171596056539066</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021949881624202</v>
+        <v>0.021022471788469499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021949963531455</v>
+        <v>-0.014022471887885857</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001022761471305</v>
+        <v>0.014000936187157365</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010228676266024</v>
+        <v>-0.0040009363131048303</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999941346033</v>
+        <v>0.0039999999257176455</v>
       </c>
     </row>
   </sheetData>
